--- a/medicine/Psychotrope/Kevin_Doure/Kevin_Doure.xlsx
+++ b/medicine/Psychotrope/Kevin_Doure/Kevin_Doure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kevin Doure, né à Fort-de-France, est un trafiquant de drogue français[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kevin Doure, né à Fort-de-France, est un trafiquant de drogue français.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Surnommé le « Pablo Escobar français »[1],[2],[3],[4], il est considéré à son apogée comme « l'un des plus grands trafiquants de cocaïne français »[1].
-Ancien étudiant en droit, il avait déclaré une entreprise d'import-export domicilié aux Mureaux[3].
-Arrêté en octobre 2013 avec des complices à la suite d'une enquête de l'Office central pour la répression du trafic illicite des stupéfiants (OCRTIS)[1],[2], il travaillait avec des intermédiaires vénézuéliens — ces derniers se procurant la drogue en Colombie — pour l'importer vers l'Europe[1]. Son réseau utilisait le « rip off » (placer la marchandise dans un conteneur avant son chargement sur un navire), avec des complicité parmi les dockers en Martinique, à Sainte-Lucie, au Havre et à Dunkerque[1],[2],[3].
-En juin 2018, il est condamné à 22 années d'emprisonnement[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Surnommé le « Pablo Escobar français » il est considéré à son apogée comme « l'un des plus grands trafiquants de cocaïne français ».
+Ancien étudiant en droit, il avait déclaré une entreprise d'import-export domicilié aux Mureaux.
+Arrêté en octobre 2013 avec des complices à la suite d'une enquête de l'Office central pour la répression du trafic illicite des stupéfiants (OCRTIS) il travaillait avec des intermédiaires vénézuéliens — ces derniers se procurant la drogue en Colombie — pour l'importer vers l'Europe. Son réseau utilisait le « rip off » (placer la marchandise dans un conteneur avant son chargement sur un navire), avec des complicité parmi les dockers en Martinique, à Sainte-Lucie, au Havre et à Dunkerque.
+En juin 2018, il est condamné à 22 années d'emprisonnement.
 </t>
         </is>
       </c>
